--- a/Analyses/Évolution.xlsx
+++ b/Analyses/Évolution.xlsx
@@ -462,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -482,15 +482,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -501,9 +492,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -560,13 +548,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -866,7 +875,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D7"/>
+      <selection activeCell="E4" sqref="E4:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -880,88 +889,92 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickBot="1">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="9"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="33"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickBot="1">
-      <c r="B3" s="20"/>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="21">
         <v>76</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="22">
         <v>80</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="11"/>
+      <c r="E4" s="22">
+        <v>85</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="23">
         <v>84</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="24">
         <v>84</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="24">
+        <v>84</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -972,16 +985,18 @@
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" ht="31.5">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="23">
         <v>87</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="24">
         <v>87</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="24">
+        <v>87</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -992,16 +1007,18 @@
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" thickBot="1">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="35">
         <v>78</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="36">
         <v>78</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="36">
+        <v>78</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -1025,7 +1042,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1039,88 +1056,92 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickBot="1">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="9"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="33"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickBot="1">
-      <c r="B3" s="20"/>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="21">
         <v>73</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="22">
         <v>89</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="11"/>
+      <c r="E4" s="34">
+        <v>90</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="23">
         <v>81</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="24">
         <v>81</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="24">
+        <v>81</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -1131,16 +1152,18 @@
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" ht="31.5">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="17">
         <v>93</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="18">
         <v>93</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="18">
+        <v>93</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -1151,16 +1174,18 @@
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" thickBot="1">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="19">
         <v>90</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="20">
         <v>90</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="20">
+        <v>90</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -1183,7 +1208,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1197,88 +1222,92 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickBot="1">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="9"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="33"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickBot="1">
-      <c r="B3" s="20"/>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="37">
         <v>96</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="38">
         <v>100</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="35"/>
+      <c r="E4" s="38">
+        <v>100</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="30"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" thickBot="1">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="35">
         <v>88</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="20">
         <v>96</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="20">
+        <v>95</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -1288,33 +1317,33 @@
       <c r="L5" s="5"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:13" s="29" customFormat="1">
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-    </row>
-    <row r="7" spans="1:13" s="29" customFormat="1">
-      <c r="B7" s="32"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
+    <row r="6" spans="1:13" s="25" customFormat="1">
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+    </row>
+    <row r="7" spans="1:13" s="25" customFormat="1">
+      <c r="B7" s="28"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Analyses/Évolution.xlsx
+++ b/Analyses/Évolution.xlsx
@@ -554,6 +554,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -561,21 +576,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -875,7 +875,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -889,20 +889,20 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickBot="1">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="33"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickBot="1">
       <c r="B3" s="16"/>
@@ -951,7 +951,7 @@
         <v>80</v>
       </c>
       <c r="E4" s="22">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -1010,13 +1010,13 @@
       <c r="B7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="32">
         <v>78</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="33">
         <v>78</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="33">
         <v>78</v>
       </c>
       <c r="F7" s="5"/>
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1056,20 +1056,20 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickBot="1">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="33"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickBot="1">
       <c r="B3" s="16"/>
@@ -1117,8 +1117,8 @@
       <c r="D4" s="22">
         <v>89</v>
       </c>
-      <c r="E4" s="34">
-        <v>90</v>
+      <c r="E4" s="31">
+        <v>92</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -1208,7 +1208,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1222,20 +1222,20 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickBot="1">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="33"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickBot="1">
       <c r="B3" s="16"/>
@@ -1277,13 +1277,13 @@
       <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="34">
         <v>96</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="35">
         <v>100</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="35">
         <v>100</v>
       </c>
       <c r="F4" s="29"/>
@@ -1299,14 +1299,14 @@
       <c r="B5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="32">
         <v>88</v>
       </c>
       <c r="D5" s="20">
         <v>96</v>
       </c>
       <c r="E5" s="20">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>

--- a/Analyses/Évolution.xlsx
+++ b/Analyses/Évolution.xlsx
@@ -462,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -576,6 +576,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -875,7 +878,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F4" sqref="F4:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -953,7 +956,9 @@
       <c r="E4" s="22">
         <v>83</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="22">
+        <v>89</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -975,7 +980,9 @@
       <c r="E5" s="24">
         <v>84</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="24">
+        <v>88</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -997,7 +1004,9 @@
       <c r="E6" s="24">
         <v>87</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="24">
+        <v>87</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1019,7 +1028,9 @@
       <c r="E7" s="33">
         <v>78</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="33">
+        <v>78</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -1042,7 +1053,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1120,7 +1131,9 @@
       <c r="E4" s="31">
         <v>92</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="31">
+        <v>90</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -1142,7 +1155,9 @@
       <c r="E5" s="24">
         <v>81</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="24">
+        <v>86</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -1164,7 +1179,9 @@
       <c r="E6" s="18">
         <v>93</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="18">
+        <v>93</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1186,7 +1203,9 @@
       <c r="E7" s="20">
         <v>90</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="20">
+        <v>90</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -1205,10 +1224,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1286,7 +1305,9 @@
       <c r="E4" s="35">
         <v>100</v>
       </c>
-      <c r="F4" s="29"/>
+      <c r="F4" s="35">
+        <v>97</v>
+      </c>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -1308,7 +1329,9 @@
       <c r="E5" s="20">
         <v>96</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="20">
+        <v>94</v>
+      </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -1345,6 +1368,9 @@
       <c r="L7" s="27"/>
       <c r="M7" s="27"/>
     </row>
+    <row r="12" spans="1:13">
+      <c r="I12" s="39"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:M2"/>

--- a/Analyses/Évolution.xlsx
+++ b/Analyses/Évolution.xlsx
@@ -569,6 +569,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -576,9 +579,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -878,7 +878,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F7"/>
+      <selection activeCell="G4" sqref="G4:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -892,20 +892,20 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickBot="1">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="39"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickBot="1">
       <c r="B3" s="16"/>
@@ -959,7 +959,9 @@
       <c r="F4" s="22">
         <v>89</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="22">
+        <v>81</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -983,7 +985,9 @@
       <c r="F5" s="24">
         <v>88</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="24">
+        <v>88</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -1007,7 +1011,9 @@
       <c r="F6" s="24">
         <v>87</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="24">
+        <v>87</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1031,7 +1037,9 @@
       <c r="F7" s="33">
         <v>78</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="33">
+        <v>78</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -1053,7 +1061,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="G7" activeCellId="2" sqref="G4 G6 G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1067,20 +1075,20 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickBot="1">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="39"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickBot="1">
       <c r="B3" s="16"/>
@@ -1134,7 +1142,9 @@
       <c r="F4" s="31">
         <v>90</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="31">
+        <v>93</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -1158,7 +1168,9 @@
       <c r="F5" s="24">
         <v>86</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="24">
+        <v>86</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -1182,7 +1194,9 @@
       <c r="F6" s="18">
         <v>93</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="18">
+        <v>93</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1206,7 +1220,9 @@
       <c r="F7" s="20">
         <v>90</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="20">
+        <v>90</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -1227,7 +1243,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G4" sqref="G4:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1241,20 +1257,20 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickBot="1">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="39"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickBot="1">
       <c r="B3" s="16"/>
@@ -1308,7 +1324,9 @@
       <c r="F4" s="35">
         <v>97</v>
       </c>
-      <c r="G4" s="29"/>
+      <c r="G4" s="35">
+        <v>98</v>
+      </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
@@ -1332,7 +1350,9 @@
       <c r="F5" s="20">
         <v>94</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="20">
+        <v>95</v>
+      </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -1369,7 +1389,7 @@
       <c r="M7" s="27"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="I12" s="39"/>
+      <c r="I12" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Analyses/Évolution.xlsx
+++ b/Analyses/Évolution.xlsx
@@ -878,7 +878,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G7"/>
+      <selection activeCell="H4" sqref="H4:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -962,7 +962,9 @@
       <c r="G4" s="22">
         <v>81</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="22">
+        <v>82</v>
+      </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -988,7 +990,9 @@
       <c r="G5" s="24">
         <v>88</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="24">
+        <v>88</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -1014,7 +1018,9 @@
       <c r="G6" s="24">
         <v>87</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="24">
+        <v>87</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1040,7 +1046,9 @@
       <c r="G7" s="33">
         <v>78</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="33">
+        <v>78</v>
+      </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -1061,7 +1069,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G7" activeCellId="2" sqref="G4 G6 G7"/>
+      <selection activeCell="H6" activeCellId="1" sqref="H4 H6:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1145,7 +1153,9 @@
       <c r="G4" s="31">
         <v>93</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="31">
+        <v>92</v>
+      </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -1171,7 +1181,9 @@
       <c r="G5" s="24">
         <v>86</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="24">
+        <v>86</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -1197,7 +1209,9 @@
       <c r="G6" s="18">
         <v>93</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="18">
+        <v>93</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1223,7 +1237,9 @@
       <c r="G7" s="20">
         <v>90</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="20">
+        <v>90</v>
+      </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -1243,7 +1259,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G5"/>
+      <selection activeCell="H4" sqref="H4:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1327,7 +1343,9 @@
       <c r="G4" s="35">
         <v>98</v>
       </c>
-      <c r="H4" s="29"/>
+      <c r="H4" s="35">
+        <v>100</v>
+      </c>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
@@ -1353,7 +1371,9 @@
       <c r="G5" s="20">
         <v>95</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="20">
+        <v>96</v>
+      </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>

--- a/Analyses/Évolution.xlsx
+++ b/Analyses/Évolution.xlsx
@@ -878,7 +878,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H7"/>
+      <selection activeCell="H4" sqref="H4:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -965,7 +965,9 @@
       <c r="H4" s="22">
         <v>82</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="22">
+        <v>82</v>
+      </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -993,7 +995,9 @@
       <c r="H5" s="24">
         <v>88</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="24">
+        <v>88</v>
+      </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -1021,7 +1025,9 @@
       <c r="H6" s="24">
         <v>87</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="24">
+        <v>87</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -1049,7 +1055,9 @@
       <c r="H7" s="33">
         <v>78</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="33">
+        <v>78</v>
+      </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -1069,7 +1077,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H6" activeCellId="1" sqref="H4 H6:H7"/>
+      <selection activeCell="I6" sqref="I6:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1156,7 +1164,9 @@
       <c r="H4" s="31">
         <v>92</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="22">
+        <v>88</v>
+      </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -1184,7 +1194,9 @@
       <c r="H5" s="24">
         <v>86</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="24">
+        <v>86</v>
+      </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -1212,7 +1224,9 @@
       <c r="H6" s="18">
         <v>93</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="18">
+        <v>93</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -1240,7 +1254,9 @@
       <c r="H7" s="20">
         <v>90</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="20">
+        <v>90</v>
+      </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -1259,7 +1275,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H5"/>
+      <selection activeCell="H4" sqref="H4:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1346,7 +1362,9 @@
       <c r="H4" s="35">
         <v>100</v>
       </c>
-      <c r="I4" s="29"/>
+      <c r="I4" s="35">
+        <v>100</v>
+      </c>
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
@@ -1374,7 +1392,9 @@
       <c r="H5" s="20">
         <v>96</v>
       </c>
-      <c r="I5" s="5"/>
+      <c r="I5" s="20">
+        <v>96</v>
+      </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>

--- a/Analyses/Évolution.xlsx
+++ b/Analyses/Évolution.xlsx
@@ -878,7 +878,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:I7"/>
+      <selection activeCell="I4" sqref="I4:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -968,7 +968,9 @@
       <c r="I4" s="22">
         <v>82</v>
       </c>
-      <c r="J4" s="7"/>
+      <c r="J4" s="22">
+        <v>82</v>
+      </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="8"/>
@@ -998,7 +1000,9 @@
       <c r="I5" s="24">
         <v>88</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J5" s="24">
+        <v>88</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="4"/>
@@ -1028,7 +1032,9 @@
       <c r="I6" s="24">
         <v>87</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="24">
+        <v>87</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="4"/>
@@ -1058,7 +1064,9 @@
       <c r="I7" s="33">
         <v>78</v>
       </c>
-      <c r="J7" s="5"/>
+      <c r="J7" s="33">
+        <v>78</v>
+      </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="6"/>
@@ -1077,7 +1085,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:I7"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1167,7 +1175,9 @@
       <c r="I4" s="22">
         <v>88</v>
       </c>
-      <c r="J4" s="7"/>
+      <c r="J4" s="22">
+        <v>89</v>
+      </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="8"/>
@@ -1197,7 +1207,9 @@
       <c r="I5" s="24">
         <v>86</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J5" s="24">
+        <v>86</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="4"/>
@@ -1227,7 +1239,9 @@
       <c r="I6" s="18">
         <v>93</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="18">
+        <v>93</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="4"/>
@@ -1257,7 +1271,9 @@
       <c r="I7" s="20">
         <v>90</v>
       </c>
-      <c r="J7" s="5"/>
+      <c r="J7" s="20">
+        <v>90</v>
+      </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="6"/>
@@ -1275,7 +1291,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:I5"/>
+      <selection activeCell="J4" sqref="J4:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1365,7 +1381,9 @@
       <c r="I4" s="35">
         <v>100</v>
       </c>
-      <c r="J4" s="29"/>
+      <c r="J4" s="35">
+        <v>99</v>
+      </c>
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
       <c r="M4" s="30"/>
@@ -1395,7 +1413,9 @@
       <c r="I5" s="20">
         <v>96</v>
       </c>
-      <c r="J5" s="5"/>
+      <c r="J5" s="20">
+        <v>95</v>
+      </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="6"/>

--- a/Analyses/Évolution.xlsx
+++ b/Analyses/Évolution.xlsx
@@ -878,7 +878,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:J7"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -969,7 +969,7 @@
         <v>82</v>
       </c>
       <c r="J4" s="22">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -1175,8 +1175,8 @@
       <c r="I4" s="22">
         <v>88</v>
       </c>
-      <c r="J4" s="22">
-        <v>89</v>
+      <c r="J4" s="31">
+        <v>90</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -1291,7 +1291,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:J5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1382,7 +1382,7 @@
         <v>100</v>
       </c>
       <c r="J4" s="35">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
@@ -1414,7 +1414,7 @@
         <v>96</v>
       </c>
       <c r="J5" s="20">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>

--- a/Analyses/Évolution.xlsx
+++ b/Analyses/Évolution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="14115" windowHeight="8520" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="14115" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="LightHouse - Portable" sheetId="1" r:id="rId1"/>
@@ -877,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -971,7 +971,9 @@
       <c r="J4" s="22">
         <v>83</v>
       </c>
-      <c r="K4" s="7"/>
+      <c r="K4" s="22">
+        <v>82</v>
+      </c>
       <c r="L4" s="7"/>
       <c r="M4" s="8"/>
     </row>
@@ -1003,7 +1005,9 @@
       <c r="J5" s="24">
         <v>88</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="24">
+        <v>88</v>
+      </c>
       <c r="L5" s="3"/>
       <c r="M5" s="4"/>
     </row>
@@ -1035,7 +1039,9 @@
       <c r="J6" s="24">
         <v>87</v>
       </c>
-      <c r="K6" s="3"/>
+      <c r="K6" s="24">
+        <v>87</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="M6" s="4"/>
     </row>
@@ -1067,7 +1073,9 @@
       <c r="J7" s="33">
         <v>78</v>
       </c>
-      <c r="K7" s="5"/>
+      <c r="K7" s="33">
+        <v>78</v>
+      </c>
       <c r="L7" s="5"/>
       <c r="M7" s="6"/>
     </row>
@@ -1085,7 +1093,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1178,7 +1186,9 @@
       <c r="J4" s="31">
         <v>90</v>
       </c>
-      <c r="K4" s="7"/>
+      <c r="K4" s="31">
+        <v>91</v>
+      </c>
       <c r="L4" s="7"/>
       <c r="M4" s="8"/>
     </row>
@@ -1210,7 +1220,9 @@
       <c r="J5" s="24">
         <v>86</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="24">
+        <v>86</v>
+      </c>
       <c r="L5" s="3"/>
       <c r="M5" s="4"/>
     </row>
@@ -1242,7 +1254,9 @@
       <c r="J6" s="18">
         <v>93</v>
       </c>
-      <c r="K6" s="3"/>
+      <c r="K6" s="18">
+        <v>93</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="M6" s="4"/>
     </row>
@@ -1274,7 +1288,9 @@
       <c r="J7" s="20">
         <v>90</v>
       </c>
-      <c r="K7" s="5"/>
+      <c r="K7" s="20">
+        <v>90</v>
+      </c>
       <c r="L7" s="5"/>
       <c r="M7" s="6"/>
     </row>
@@ -1290,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1384,7 +1400,9 @@
       <c r="J4" s="35">
         <v>100</v>
       </c>
-      <c r="K4" s="29"/>
+      <c r="K4" s="35">
+        <v>100</v>
+      </c>
       <c r="L4" s="29"/>
       <c r="M4" s="30"/>
     </row>
@@ -1416,7 +1434,9 @@
       <c r="J5" s="20">
         <v>96</v>
       </c>
-      <c r="K5" s="5"/>
+      <c r="K5" s="20">
+        <v>93</v>
+      </c>
       <c r="L5" s="5"/>
       <c r="M5" s="6"/>
     </row>

--- a/Analyses/Évolution.xlsx
+++ b/Analyses/Évolution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="14115" windowHeight="8520"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="14115" windowHeight="8520" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LightHouse - Portable" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -470,19 +470,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -546,9 +537,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -877,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L7" activeCellId="2" sqref="L4 L6 L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -892,192 +880,200 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickBot="1">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickBot="1">
-      <c r="B3" s="16"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="18">
         <v>76</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="19">
         <v>80</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="19">
         <v>83</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="19">
         <v>89</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="19">
         <v>81</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="19">
         <v>82</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="19">
         <v>82</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="19">
         <v>83</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="19">
         <v>82</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="8"/>
+      <c r="L4" s="19">
+        <v>82</v>
+      </c>
+      <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="20">
         <v>84</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="21">
         <v>84</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="21">
         <v>84</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="21">
         <v>88</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="21">
         <v>88</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="21">
         <v>88</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="21">
         <v>88</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="21">
         <v>88</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="21">
         <v>88</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="4"/>
+      <c r="L5" s="15">
+        <v>93</v>
+      </c>
+      <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" ht="31.5">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="20">
         <v>87</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="21">
         <v>87</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="21">
         <v>87</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="21">
         <v>87</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="21">
         <v>87</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="21">
         <v>87</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="21">
         <v>87</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="21">
         <v>87</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="21">
         <v>87</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="4"/>
+      <c r="L6" s="21">
+        <v>87</v>
+      </c>
+      <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" thickBot="1">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="28">
         <v>78</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="29">
         <v>78</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="29">
         <v>78</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="29">
         <v>78</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="29">
         <v>78</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="29">
         <v>78</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="29">
         <v>78</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="29">
         <v>78</v>
       </c>
-      <c r="K7" s="33">
+      <c r="K7" s="29">
         <v>78</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="6"/>
+      <c r="L7" s="29">
+        <v>81</v>
+      </c>
+      <c r="M7" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1093,7 +1089,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1107,192 +1103,200 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickBot="1">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickBot="1">
-      <c r="B3" s="16"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="18">
         <v>73</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="19">
         <v>89</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="27">
         <v>92</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="27">
         <v>90</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="27">
         <v>93</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="27">
         <v>92</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="19">
         <v>88</v>
       </c>
-      <c r="J4" s="31">
+      <c r="J4" s="27">
         <v>90</v>
       </c>
-      <c r="K4" s="31">
+      <c r="K4" s="27">
         <v>91</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="8"/>
+      <c r="L4" s="27">
+        <v>92</v>
+      </c>
+      <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="20">
         <v>81</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="21">
         <v>81</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="21">
         <v>81</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="21">
         <v>86</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="21">
         <v>86</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="21">
         <v>86</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="21">
         <v>86</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="21">
         <v>86</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="21">
         <v>86</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="4"/>
+      <c r="L5" s="15">
+        <v>92</v>
+      </c>
+      <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" ht="31.5">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="14">
         <v>93</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="15">
         <v>93</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="15">
         <v>93</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="15">
         <v>93</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="15">
         <v>93</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="15">
         <v>93</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="15">
         <v>93</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="15">
         <v>93</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="15">
         <v>93</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="4"/>
+      <c r="L6" s="15">
+        <v>93</v>
+      </c>
+      <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" thickBot="1">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="16">
         <v>90</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="17">
         <v>90</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="17">
         <v>90</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="17">
         <v>90</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="17">
         <v>90</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="17">
         <v>90</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="17">
         <v>90</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="17">
         <v>90</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="17">
         <v>90</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="6"/>
+      <c r="L7" s="17">
+        <v>90</v>
+      </c>
+      <c r="M7" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1306,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1321,155 +1325,159 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickBot="1">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickBot="1">
-      <c r="B3" s="16"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="30">
         <v>96</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="31">
         <v>100</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="31">
         <v>100</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="31">
         <v>97</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="31">
         <v>98</v>
       </c>
-      <c r="H4" s="35">
+      <c r="H4" s="31">
         <v>100</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4" s="31">
         <v>100</v>
       </c>
-      <c r="J4" s="35">
+      <c r="J4" s="31">
         <v>100</v>
       </c>
-      <c r="K4" s="35">
+      <c r="K4" s="31">
         <v>100</v>
       </c>
-      <c r="L4" s="29"/>
-      <c r="M4" s="30"/>
+      <c r="L4" s="31">
+        <v>99</v>
+      </c>
+      <c r="M4" s="26"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" thickBot="1">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="28">
         <v>88</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="17">
         <v>96</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="17">
         <v>96</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="17">
         <v>94</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="17">
         <v>95</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="17">
         <v>96</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="17">
         <v>96</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="17">
         <v>96</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="17">
         <v>93</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="6"/>
-    </row>
-    <row r="6" spans="1:13" s="25" customFormat="1">
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-    </row>
-    <row r="7" spans="1:13" s="25" customFormat="1">
-      <c r="B7" s="28"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
+      <c r="L5" s="17">
+        <v>91</v>
+      </c>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" s="22" customFormat="1">
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+    </row>
+    <row r="7" spans="1:13" s="22" customFormat="1">
+      <c r="B7" s="25"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="I12" s="36"/>
+      <c r="I12" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Analyses/Évolution.xlsx
+++ b/Analyses/Évolution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
   <si>
     <t>PERFORMANCE</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>STRUCTURE</t>
+  </si>
+  <si>
+    <t>ÉTAPE 11</t>
+  </si>
+  <si>
+    <t>ÉTAPE 12</t>
   </si>
 </sst>
 </file>
@@ -166,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -293,10 +299,53 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -306,55 +355,79 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -362,26 +435,195 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -391,68 +633,34 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -462,7 +670,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -470,58 +678,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -539,34 +732,115 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -863,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L7" activeCellId="2" sqref="L4 L6 L7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -876,208 +1150,232 @@
     <col min="3" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" thickBot="1">
+    <row r="1" spans="1:15" ht="16.5" thickBot="1">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="16.5" thickBot="1">
-      <c r="B2" s="33" t="s">
+    <row r="2" spans="1:15" ht="16.5" thickBot="1">
+      <c r="B2" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="35"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" thickBot="1">
-      <c r="B3" s="13"/>
-      <c r="C3" s="12" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="53"/>
+    </row>
+    <row r="3" spans="1:15" ht="16.5" thickBot="1">
+      <c r="B3" s="31"/>
+      <c r="C3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="41" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="B4" s="8" t="s">
+      <c r="N3" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="B4" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="42">
         <v>76</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="43">
         <v>80</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="43">
         <v>83</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="43">
         <v>89</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="43">
         <v>81</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="43">
         <v>82</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="43">
         <v>82</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="43">
         <v>83</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="43">
         <v>82</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="43">
         <v>82</v>
       </c>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="B5" s="9" t="s">
+      <c r="M4" s="43">
+        <v>81</v>
+      </c>
+      <c r="N4" s="44"/>
+      <c r="O4" s="45"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="B5" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="46">
         <v>84</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="16">
         <v>84</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="16">
         <v>84</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="16">
         <v>88</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="16">
         <v>88</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="16">
         <v>88</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="16">
         <v>88</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="16">
         <v>88</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="16">
         <v>88</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="10">
         <v>93</v>
       </c>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" ht="31.5">
-      <c r="B6" s="10" t="s">
+      <c r="M5" s="10">
+        <v>93</v>
+      </c>
+      <c r="N5" s="28"/>
+      <c r="O5" s="47"/>
+    </row>
+    <row r="6" spans="1:15" ht="31.5">
+      <c r="B6" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="46">
         <v>87</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="16">
         <v>87</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="16">
         <v>87</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="16">
         <v>87</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="16">
         <v>87</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="16">
         <v>87</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="16">
         <v>87</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="16">
         <v>87</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="16">
         <v>87</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="16">
         <v>87</v>
       </c>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" ht="16.5" thickBot="1">
-      <c r="B7" s="11" t="s">
+      <c r="M6" s="16">
+        <v>87</v>
+      </c>
+      <c r="N6" s="28"/>
+      <c r="O6" s="47"/>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" thickBot="1">
+      <c r="B7" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="48">
         <v>78</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="22">
         <v>78</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="22">
         <v>78</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="22">
         <v>78</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="22">
         <v>78</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="22">
         <v>78</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="22">
         <v>78</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="22">
         <v>78</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="22">
         <v>78</v>
       </c>
-      <c r="L7" s="29">
+      <c r="L7" s="22">
         <v>81</v>
       </c>
-      <c r="M7" s="4"/>
+      <c r="M7" s="22">
+        <v>89</v>
+      </c>
+      <c r="N7" s="49"/>
+      <c r="O7" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1086,10 +1384,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1099,208 +1397,232 @@
     <col min="3" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" thickBot="1">
+    <row r="1" spans="1:15" ht="16.5" thickBot="1">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="16.5" thickBot="1">
-      <c r="B2" s="33" t="s">
+    <row r="2" spans="1:15" ht="16.5" thickBot="1">
+      <c r="B2" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="35"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" thickBot="1">
-      <c r="B3" s="13"/>
-      <c r="C3" s="12" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="53"/>
+    </row>
+    <row r="3" spans="1:15" ht="16.5" thickBot="1">
+      <c r="B3" s="31"/>
+      <c r="C3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="B4" s="8" t="s">
+      <c r="N3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="B4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="13">
         <v>73</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="14">
         <v>89</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="21">
         <v>92</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="21">
         <v>90</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="21">
         <v>93</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="21">
         <v>92</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="14">
         <v>88</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="21">
         <v>90</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="21">
         <v>91</v>
       </c>
-      <c r="L4" s="27">
+      <c r="L4" s="21">
         <v>92</v>
       </c>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="B5" s="9" t="s">
+      <c r="M4" s="24">
+        <v>91</v>
+      </c>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="15">
         <v>81</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="16">
         <v>81</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="16">
         <v>81</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="16">
         <v>86</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="16">
         <v>86</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="16">
         <v>86</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="16">
         <v>86</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="16">
         <v>86</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="16">
         <v>86</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="10">
         <v>92</v>
       </c>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" ht="31.5">
-      <c r="B6" s="10" t="s">
+      <c r="M5" s="25">
+        <v>92</v>
+      </c>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+    </row>
+    <row r="6" spans="1:15" ht="32.25" thickBot="1">
+      <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="9">
         <v>93</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="10">
         <v>93</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="10">
         <v>93</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="10">
         <v>93</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="10">
         <v>93</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="10">
         <v>93</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="10">
         <v>93</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="10">
         <v>93</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="10">
         <v>93</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="10">
         <v>93</v>
       </c>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" ht="16.5" thickBot="1">
-      <c r="B7" s="11" t="s">
+      <c r="M6" s="25">
+        <v>93</v>
+      </c>
+      <c r="N6" s="28"/>
+      <c r="O6" s="34"/>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" thickBot="1">
+      <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="11">
         <v>90</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="12">
         <v>90</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="12">
         <v>90</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="12">
         <v>90</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="12">
         <v>90</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="12">
         <v>90</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="12">
         <v>90</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="12">
         <v>90</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="12">
         <v>90</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="12">
         <v>90</v>
       </c>
-      <c r="M7" s="4"/>
+      <c r="M7" s="26">
+        <v>100</v>
+      </c>
+      <c r="N7" s="33"/>
+      <c r="O7" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1308,10 +1630,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4:L5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1321,167 +1643,192 @@
     <col min="3" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" thickBot="1">
+    <row r="1" spans="1:15" ht="16.5" thickBot="1">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="16.5" thickBot="1">
-      <c r="B2" s="33" t="s">
+    <row r="2" spans="1:15" ht="16.5" thickBot="1">
+      <c r="B2" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="35"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" thickBot="1">
-      <c r="B3" s="13"/>
-      <c r="C3" s="12" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="53"/>
+    </row>
+    <row r="3" spans="1:15" ht="16.5" thickBot="1">
+      <c r="B3" s="54"/>
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="B4" s="8" t="s">
+      <c r="N3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="B4" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="55">
         <v>96</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="21">
         <v>100</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="21">
         <v>100</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="21">
         <v>97</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="21">
         <v>98</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="21">
         <v>100</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="21">
         <v>100</v>
       </c>
-      <c r="J4" s="31">
+      <c r="J4" s="21">
         <v>100</v>
       </c>
-      <c r="K4" s="31">
+      <c r="K4" s="21">
         <v>100</v>
       </c>
-      <c r="L4" s="31">
+      <c r="L4" s="21">
         <v>99</v>
       </c>
-      <c r="M4" s="26"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" thickBot="1">
-      <c r="B5" s="11" t="s">
+      <c r="M4" s="21">
+        <v>100</v>
+      </c>
+      <c r="N4" s="30"/>
+      <c r="O4" s="56"/>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" thickBot="1">
+      <c r="B5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="48">
         <v>88</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="12">
         <v>96</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="12">
         <v>96</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="12">
         <v>94</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="12">
         <v>95</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="12">
         <v>96</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="12">
         <v>96</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="12">
         <v>96</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="12">
         <v>93</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="12">
         <v>91</v>
       </c>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" s="22" customFormat="1">
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-    </row>
-    <row r="7" spans="1:13" s="22" customFormat="1">
-      <c r="B7" s="25"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="I12" s="32"/>
+      <c r="M5" s="12">
+        <v>91</v>
+      </c>
+      <c r="N5" s="49"/>
+      <c r="O5" s="50"/>
+    </row>
+    <row r="6" spans="1:15" s="17" customFormat="1">
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+    </row>
+    <row r="7" spans="1:15" s="17" customFormat="1">
+      <c r="B7" s="20"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="D8" s="57"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="I12" s="23"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="L13" s="57"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="F16" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Analyses/Évolution.xlsx
+++ b/Analyses/Évolution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="14115" windowHeight="8520"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="14115" windowHeight="8520" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LightHouse - Portable" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
   <si>
     <t>PERFORMANCE</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>ÉTAPE 12</t>
-  </si>
-  <si>
-    <t>ÉTAPE 13</t>
   </si>
 </sst>
 </file>
@@ -175,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -290,19 +287,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -473,19 +457,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -529,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -564,106 +535,97 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -960,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -973,119 +935,118 @@
     <col min="3" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1">
+    <row r="1" spans="1:15" ht="16.5" thickBot="1">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="16.5" thickBot="1">
-      <c r="B2" s="32" t="s">
+    <row r="2" spans="1:15" ht="16.5" thickBot="1">
+      <c r="B2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
       <c r="O2" s="35"/>
-      <c r="P2" s="36"/>
-    </row>
-    <row r="3" spans="1:16" ht="16.5" thickBot="1">
-      <c r="B3" s="14"/>
-      <c r="C3" s="45" t="s">
+    </row>
+    <row r="3" spans="1:15" ht="16.5" thickBot="1">
+      <c r="B3" s="13"/>
+      <c r="C3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="19" t="s">
         <v>19</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="B4" s="15" t="s">
+    </row>
+    <row r="4" spans="1:15">
+      <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <v>76</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <v>80</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="21">
         <v>83</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="21">
         <v>89</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="21">
         <v>81</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="21">
         <v>82</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="21">
         <v>82</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="21">
         <v>83</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="21">
         <v>82</v>
       </c>
-      <c r="L4" s="22">
+      <c r="L4" s="21">
         <v>82</v>
       </c>
-      <c r="M4" s="22">
+      <c r="M4" s="21">
         <v>81</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="24"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="B5" s="16" t="s">
+      <c r="N4" s="21">
+        <v>83</v>
+      </c>
+      <c r="O4" s="38">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="22">
         <v>84</v>
       </c>
       <c r="D5" s="5">
@@ -1118,15 +1079,18 @@
       <c r="M5" s="3">
         <v>93</v>
       </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="26"/>
-    </row>
-    <row r="6" spans="1:16" ht="31.5">
-      <c r="B6" s="17" t="s">
+      <c r="N5" s="3">
+        <v>96</v>
+      </c>
+      <c r="O5" s="39">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="31.5">
+      <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="22">
         <v>87</v>
       </c>
       <c r="D6" s="5">
@@ -1159,15 +1123,18 @@
       <c r="M6" s="5">
         <v>87</v>
       </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="26"/>
-    </row>
-    <row r="7" spans="1:16" ht="16.5" thickBot="1">
-      <c r="B7" s="18" t="s">
+      <c r="N6" s="5">
+        <v>87</v>
+      </c>
+      <c r="O6" s="40">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" thickBot="1">
+      <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="23">
         <v>78</v>
       </c>
       <c r="D7" s="10">
@@ -1200,13 +1167,16 @@
       <c r="M7" s="10">
         <v>89</v>
       </c>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="29"/>
+      <c r="N7" s="10">
+        <v>89</v>
+      </c>
+      <c r="O7" s="41">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1215,10 +1185,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1228,119 +1198,118 @@
     <col min="3" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1">
+    <row r="1" spans="1:15" ht="16.5" thickBot="1">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="16.5" thickBot="1">
-      <c r="B2" s="32" t="s">
+    <row r="2" spans="1:15" ht="16.5" thickBot="1">
+      <c r="B2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
       <c r="O2" s="35"/>
-      <c r="P2" s="36"/>
-    </row>
-    <row r="3" spans="1:16" ht="16.5" thickBot="1">
-      <c r="B3" s="14"/>
-      <c r="C3" s="19" t="s">
+    </row>
+    <row r="3" spans="1:15" ht="16.5" thickBot="1">
+      <c r="B3" s="13"/>
+      <c r="C3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="19" t="s">
         <v>19</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="B4" s="41" t="s">
+    </row>
+    <row r="4" spans="1:15">
+      <c r="B4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <v>73</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <v>89</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="27">
         <v>92</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="27">
         <v>90</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="27">
         <v>93</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="27">
         <v>92</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="21">
         <v>88</v>
       </c>
-      <c r="J4" s="39">
+      <c r="J4" s="27">
         <v>90</v>
       </c>
-      <c r="K4" s="39">
+      <c r="K4" s="27">
         <v>91</v>
       </c>
-      <c r="L4" s="39">
+      <c r="L4" s="27">
         <v>92</v>
       </c>
-      <c r="M4" s="39">
+      <c r="M4" s="27">
         <v>91</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="24"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="B5" s="16" t="s">
+      <c r="N4" s="27">
+        <v>91</v>
+      </c>
+      <c r="O4" s="42">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="22">
         <v>81</v>
       </c>
       <c r="D5" s="5">
@@ -1373,15 +1342,18 @@
       <c r="M5" s="3">
         <v>92</v>
       </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="26"/>
-    </row>
-    <row r="6" spans="1:16" ht="31.5">
-      <c r="B6" s="17" t="s">
+      <c r="N5" s="3">
+        <v>95</v>
+      </c>
+      <c r="O5" s="39">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="31.5">
+      <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="29">
         <v>93</v>
       </c>
       <c r="D6" s="3">
@@ -1414,15 +1386,18 @@
       <c r="M6" s="3">
         <v>93</v>
       </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="26"/>
-    </row>
-    <row r="7" spans="1:16" ht="16.5" thickBot="1">
-      <c r="B7" s="18" t="s">
+      <c r="N6" s="3">
+        <v>96</v>
+      </c>
+      <c r="O6" s="39">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" thickBot="1">
+      <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="30">
         <v>90</v>
       </c>
       <c r="D7" s="4">
@@ -1455,24 +1430,28 @@
       <c r="M7" s="4">
         <v>100</v>
       </c>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="29"/>
+      <c r="N7" s="4">
+        <v>100</v>
+      </c>
+      <c r="O7" s="41">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1482,119 +1461,118 @@
     <col min="3" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1">
+    <row r="1" spans="1:15" ht="16.5" thickBot="1">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="16.5" thickBot="1">
-      <c r="B2" s="32" t="s">
+    <row r="2" spans="1:15" ht="16.5" thickBot="1">
+      <c r="B2" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="34"/>
-    </row>
-    <row r="3" spans="1:16" ht="16.5" thickBot="1">
-      <c r="B3" s="30"/>
-      <c r="C3" s="19" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="37"/>
+    </row>
+    <row r="3" spans="1:15" ht="16.5" thickBot="1">
+      <c r="B3" s="24"/>
+      <c r="C3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="B4" s="15" t="s">
+    </row>
+    <row r="4" spans="1:15">
+      <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="26">
         <v>96</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="27">
         <v>100</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="27">
         <v>100</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="27">
         <v>97</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="27">
         <v>98</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="27">
         <v>100</v>
       </c>
-      <c r="I4" s="39">
+      <c r="I4" s="27">
         <v>100</v>
       </c>
-      <c r="J4" s="39">
+      <c r="J4" s="27">
         <v>100</v>
       </c>
-      <c r="K4" s="39">
+      <c r="K4" s="27">
         <v>100</v>
       </c>
-      <c r="L4" s="39">
+      <c r="L4" s="27">
         <v>99</v>
       </c>
-      <c r="M4" s="39">
+      <c r="M4" s="27">
         <v>100</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="24"/>
-    </row>
-    <row r="5" spans="1:16" ht="16.5" thickBot="1">
-      <c r="B5" s="18" t="s">
+      <c r="N4" s="27">
+        <v>98</v>
+      </c>
+      <c r="O4" s="42">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" thickBot="1">
+      <c r="B5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="23">
         <v>88</v>
       </c>
       <c r="D5" s="4">
@@ -1627,11 +1605,14 @@
       <c r="M5" s="4">
         <v>91</v>
       </c>
-      <c r="N5" s="28"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="29"/>
-    </row>
-    <row r="6" spans="1:16" s="6" customFormat="1">
+      <c r="N5" s="4">
+        <v>95</v>
+      </c>
+      <c r="O5" s="41">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="6" customFormat="1">
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -1645,7 +1626,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:16" s="6" customFormat="1">
+    <row r="7" spans="1:15" s="6" customFormat="1">
       <c r="B7" s="9"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -1659,21 +1640,21 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:16">
-      <c r="D8" s="31"/>
-    </row>
-    <row r="12" spans="1:16">
+    <row r="8" spans="1:15">
+      <c r="D8" s="25"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:16">
-      <c r="L13" s="31"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="F16" s="31"/>
+    <row r="13" spans="1:15">
+      <c r="L13" s="25"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="F16" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Analyses/Évolution.xlsx
+++ b/Analyses/Évolution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="14115" windowHeight="8520" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="14115" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="LightHouse - Portable" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
   <si>
     <t>PERFORMANCE</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>ÉTAPE 12</t>
+  </si>
+  <si>
+    <t>ÉTAPE 13</t>
   </si>
 </sst>
 </file>
@@ -297,152 +300,132 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -494,13 +477,39 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -541,91 +550,85 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -922,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -935,10 +938,10 @@
     <col min="3" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.5" thickBot="1">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="16.5" thickBot="1">
+    <row r="2" spans="1:16" ht="16.5" thickBot="1">
       <c r="B2" s="33" t="s">
         <v>15</v>
       </c>
@@ -954,9 +957,10 @@
       <c r="L2" s="34"/>
       <c r="M2" s="34"/>
       <c r="N2" s="34"/>
-      <c r="O2" s="35"/>
-    </row>
-    <row r="3" spans="1:15" ht="16.5" thickBot="1">
+      <c r="O2" s="34"/>
+      <c r="P2" s="35"/>
+    </row>
+    <row r="3" spans="1:16" ht="16.5" thickBot="1">
       <c r="B3" s="13"/>
       <c r="C3" s="32" t="s">
         <v>4</v>
@@ -994,11 +998,14 @@
       <c r="N3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
@@ -1038,11 +1045,12 @@
       <c r="N4" s="21">
         <v>83</v>
       </c>
-      <c r="O4" s="38">
+      <c r="O4" s="21">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" s="36"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
@@ -1082,11 +1090,12 @@
       <c r="N5" s="3">
         <v>96</v>
       </c>
-      <c r="O5" s="39">
+      <c r="O5" s="3">
         <v>96</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="31.5">
+      <c r="P5" s="37"/>
+    </row>
+    <row r="6" spans="1:16" ht="31.5">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
@@ -1126,11 +1135,12 @@
       <c r="N6" s="5">
         <v>87</v>
       </c>
-      <c r="O6" s="40">
+      <c r="O6" s="5">
         <v>87</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="16.5" thickBot="1">
+      <c r="P6" s="37"/>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" thickBot="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
@@ -1170,13 +1180,14 @@
       <c r="N7" s="10">
         <v>89</v>
       </c>
-      <c r="O7" s="41">
+      <c r="O7" s="4">
         <v>97</v>
       </c>
+      <c r="P7" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1185,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:O7"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1198,10 +1209,10 @@
     <col min="3" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.5" thickBot="1">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="16.5" thickBot="1">
+    <row r="2" spans="1:16" ht="16.5" thickBot="1">
       <c r="B2" s="33" t="s">
         <v>16</v>
       </c>
@@ -1217,9 +1228,10 @@
       <c r="L2" s="34"/>
       <c r="M2" s="34"/>
       <c r="N2" s="34"/>
-      <c r="O2" s="35"/>
-    </row>
-    <row r="3" spans="1:15" ht="16.5" thickBot="1">
+      <c r="O2" s="34"/>
+      <c r="P2" s="35"/>
+    </row>
+    <row r="3" spans="1:16" ht="16.5" thickBot="1">
       <c r="B3" s="13"/>
       <c r="C3" s="18" t="s">
         <v>4</v>
@@ -1260,8 +1272,11 @@
       <c r="O3" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="B4" s="28" t="s">
         <v>0</v>
       </c>
@@ -1301,11 +1316,12 @@
       <c r="N4" s="27">
         <v>91</v>
       </c>
-      <c r="O4" s="42">
+      <c r="O4" s="27">
         <v>92</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" s="36"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
@@ -1345,11 +1361,12 @@
       <c r="N5" s="3">
         <v>95</v>
       </c>
-      <c r="O5" s="39">
+      <c r="O5" s="3">
         <v>95</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="31.5">
+      <c r="P5" s="37"/>
+    </row>
+    <row r="6" spans="1:16" ht="31.5">
       <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
@@ -1389,11 +1406,12 @@
       <c r="N6" s="3">
         <v>96</v>
       </c>
-      <c r="O6" s="39">
+      <c r="O6" s="3">
         <v>93</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="16.5" thickBot="1">
+      <c r="P6" s="37"/>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" thickBot="1">
       <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
@@ -1433,13 +1451,14 @@
       <c r="N7" s="4">
         <v>100</v>
       </c>
-      <c r="O7" s="41">
+      <c r="O7" s="4">
         <v>100</v>
       </c>
+      <c r="P7" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1448,10 +1467,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:O5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1461,28 +1480,29 @@
     <col min="3" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.5" thickBot="1">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="16.5" thickBot="1">
+    <row r="2" spans="1:16" ht="16.5" thickBot="1">
       <c r="B2" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="37"/>
-    </row>
-    <row r="3" spans="1:15" ht="16.5" thickBot="1">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="35"/>
+    </row>
+    <row r="3" spans="1:16" ht="16.5" thickBot="1">
       <c r="B3" s="24"/>
       <c r="C3" s="18" t="s">
         <v>4</v>
@@ -1520,11 +1540,14 @@
       <c r="N3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
@@ -1564,11 +1587,12 @@
       <c r="N4" s="27">
         <v>98</v>
       </c>
-      <c r="O4" s="42">
+      <c r="O4" s="39">
         <v>99</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="16.5" thickBot="1">
+      <c r="P4" s="36"/>
+    </row>
+    <row r="5" spans="1:16" ht="16.5" thickBot="1">
       <c r="B5" s="17" t="s">
         <v>18</v>
       </c>
@@ -1608,11 +1632,12 @@
       <c r="N5" s="4">
         <v>95</v>
       </c>
-      <c r="O5" s="41">
+      <c r="O5" s="40">
         <v>96</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" s="6" customFormat="1">
+      <c r="P5" s="38"/>
+    </row>
+    <row r="6" spans="1:16" s="6" customFormat="1">
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -1626,7 +1651,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:15" s="6" customFormat="1">
+    <row r="7" spans="1:16" s="6" customFormat="1">
       <c r="B7" s="9"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -1640,21 +1665,21 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="D8" s="25"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16">
       <c r="L13" s="25"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16">
       <c r="F16" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Analyses/Évolution.xlsx
+++ b/Analyses/Évolution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="14115" windowHeight="8520"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="14115" windowHeight="8520" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LightHouse - Portable" sheetId="1" r:id="rId1"/>
@@ -509,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -607,6 +607,33 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -616,19 +643,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -927,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -942,23 +957,23 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="35"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="44"/>
     </row>
     <row r="3" spans="1:16" ht="16.5" thickBot="1">
       <c r="B3" s="13"/>
@@ -1048,7 +1063,9 @@
       <c r="O4" s="21">
         <v>83</v>
       </c>
-      <c r="P4" s="36"/>
+      <c r="P4" s="38">
+        <v>82</v>
+      </c>
     </row>
     <row r="5" spans="1:16">
       <c r="B5" s="15" t="s">
@@ -1093,7 +1110,9 @@
       <c r="O5" s="3">
         <v>96</v>
       </c>
-      <c r="P5" s="37"/>
+      <c r="P5" s="39">
+        <v>96</v>
+      </c>
     </row>
     <row r="6" spans="1:16" ht="31.5">
       <c r="B6" s="16" t="s">
@@ -1138,7 +1157,9 @@
       <c r="O6" s="5">
         <v>87</v>
       </c>
-      <c r="P6" s="37"/>
+      <c r="P6" s="40">
+        <v>87</v>
+      </c>
     </row>
     <row r="7" spans="1:16" ht="16.5" thickBot="1">
       <c r="B7" s="17" t="s">
@@ -1183,7 +1204,9 @@
       <c r="O7" s="4">
         <v>97</v>
       </c>
-      <c r="P7" s="38"/>
+      <c r="P7" s="41">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1199,7 +1222,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="P4" sqref="P4:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1213,23 +1236,23 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="35"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="44"/>
     </row>
     <row r="3" spans="1:16" ht="16.5" thickBot="1">
       <c r="B3" s="13"/>
@@ -1319,7 +1342,9 @@
       <c r="O4" s="27">
         <v>92</v>
       </c>
-      <c r="P4" s="36"/>
+      <c r="P4" s="35">
+        <v>89</v>
+      </c>
     </row>
     <row r="5" spans="1:16">
       <c r="B5" s="15" t="s">
@@ -1364,7 +1389,9 @@
       <c r="O5" s="3">
         <v>95</v>
       </c>
-      <c r="P5" s="37"/>
+      <c r="P5" s="36">
+        <v>95</v>
+      </c>
     </row>
     <row r="6" spans="1:16" ht="31.5">
       <c r="B6" s="16" t="s">
@@ -1409,7 +1436,9 @@
       <c r="O6" s="3">
         <v>93</v>
       </c>
-      <c r="P6" s="37"/>
+      <c r="P6" s="36">
+        <v>93</v>
+      </c>
     </row>
     <row r="7" spans="1:16" ht="16.5" thickBot="1">
       <c r="B7" s="17" t="s">
@@ -1454,7 +1483,9 @@
       <c r="O7" s="4">
         <v>100</v>
       </c>
-      <c r="P7" s="38"/>
+      <c r="P7" s="37">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1469,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:P2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4:P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1484,23 +1515,23 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="35"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="44"/>
     </row>
     <row r="3" spans="1:16" ht="16.5" thickBot="1">
       <c r="B3" s="24"/>
@@ -1587,10 +1618,12 @@
       <c r="N4" s="27">
         <v>98</v>
       </c>
-      <c r="O4" s="39">
+      <c r="O4" s="33">
         <v>99</v>
       </c>
-      <c r="P4" s="36"/>
+      <c r="P4" s="45">
+        <v>100</v>
+      </c>
     </row>
     <row r="5" spans="1:16" ht="16.5" thickBot="1">
       <c r="B5" s="17" t="s">
@@ -1632,10 +1665,12 @@
       <c r="N5" s="4">
         <v>95</v>
       </c>
-      <c r="O5" s="40">
+      <c r="O5" s="34">
         <v>96</v>
       </c>
-      <c r="P5" s="38"/>
+      <c r="P5" s="41">
+        <v>96</v>
+      </c>
     </row>
     <row r="6" spans="1:16" s="6" customFormat="1">
       <c r="B6" s="7"/>
@@ -1682,5 +1717,6 @@
     <mergeCell ref="B2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Analyses/Évolution.xlsx
+++ b/Analyses/Évolution.xlsx
@@ -89,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,32 +104,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -509,14 +488,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -526,46 +502,28 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -580,19 +538,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -601,27 +553,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -634,16 +571,43 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -940,271 +904,270 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P7"/>
+  <dimension ref="B1:P7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="C1" sqref="C1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16" width="13.7109375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" ht="16.5" thickBot="1">
-      <c r="B2" s="42" t="s">
+    <row r="1" spans="2:16" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:16" ht="16.5" thickBot="1">
+      <c r="B2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="44"/>
-    </row>
-    <row r="3" spans="1:16" ht="16.5" thickBot="1">
-      <c r="B3" s="13"/>
-      <c r="C3" s="32" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="32"/>
+    </row>
+    <row r="3" spans="2:16" ht="16.5" thickBot="1">
+      <c r="B3" s="33"/>
+      <c r="C3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="P3" s="35" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="B4" s="14" t="s">
+    <row r="4" spans="2:16" ht="15.75">
+      <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="13">
         <v>76</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="14">
         <v>80</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="14">
         <v>83</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="14">
         <v>89</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="14">
         <v>81</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="14">
         <v>82</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="14">
         <v>82</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="14">
         <v>83</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="14">
         <v>82</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="14">
         <v>82</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="14">
         <v>81</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="14">
         <v>83</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="14">
         <v>83</v>
       </c>
-      <c r="P4" s="38">
+      <c r="P4" s="24">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
-      <c r="B5" s="15" t="s">
+    <row r="5" spans="2:16" ht="15.75">
+      <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="15">
         <v>84</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>84</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>84</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>88</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>88</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>88</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>88</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>88</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>88</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <v>93</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="2">
         <v>93</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="2">
         <v>96</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="2">
         <v>96</v>
       </c>
-      <c r="P5" s="39">
+      <c r="P5" s="25">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="31.5">
-      <c r="B6" s="16" t="s">
+    <row r="6" spans="2:16" ht="31.5">
+      <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="15">
         <v>87</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>87</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>87</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>87</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>87</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>87</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>87</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>87</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>87</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <v>87</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <v>87</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="4">
         <v>87</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="4">
         <v>87</v>
       </c>
-      <c r="P6" s="40">
+      <c r="P6" s="26">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16.5" thickBot="1">
-      <c r="B7" s="17" t="s">
+    <row r="7" spans="2:16" ht="16.5" thickBot="1">
+      <c r="B7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="16">
         <v>78</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>78</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <v>78</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="8">
         <v>78</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="8">
         <v>78</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="8">
         <v>78</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="8">
         <v>78</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="8">
         <v>78</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="8">
         <v>78</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="8">
         <v>81</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="8">
         <v>89</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="8">
         <v>89</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
         <v>97</v>
       </c>
-      <c r="P7" s="41">
+      <c r="P7" s="27">
         <v>97</v>
       </c>
     </row>
@@ -1219,271 +1182,270 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P7"/>
+  <dimension ref="B1:P7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4:P7"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16" width="13.7109375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" ht="16.5" thickBot="1">
-      <c r="B2" s="42" t="s">
+    <row r="1" spans="2:16" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:16" ht="16.5" thickBot="1">
+      <c r="B2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="44"/>
-    </row>
-    <row r="3" spans="1:16" ht="16.5" thickBot="1">
-      <c r="B3" s="13"/>
-      <c r="C3" s="18" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="32"/>
+    </row>
+    <row r="3" spans="2:16" ht="16.5" thickBot="1">
+      <c r="B3" s="33"/>
+      <c r="C3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="B4" s="28" t="s">
+    <row r="4" spans="2:16" ht="15.75">
+      <c r="B4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="13">
         <v>73</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="14">
         <v>89</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="18">
         <v>92</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="18">
         <v>90</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="18">
         <v>93</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="18">
         <v>92</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="14">
         <v>88</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="18">
         <v>90</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="18">
         <v>91</v>
       </c>
-      <c r="L4" s="27">
+      <c r="L4" s="18">
         <v>92</v>
       </c>
-      <c r="M4" s="27">
+      <c r="M4" s="18">
         <v>91</v>
       </c>
-      <c r="N4" s="27">
+      <c r="N4" s="18">
         <v>91</v>
       </c>
-      <c r="O4" s="27">
+      <c r="O4" s="18">
         <v>92</v>
       </c>
-      <c r="P4" s="35">
+      <c r="P4" s="28">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
-      <c r="B5" s="15" t="s">
+    <row r="5" spans="2:16" ht="15.75">
+      <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="15">
         <v>81</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>81</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>81</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>86</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>86</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>86</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>86</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>86</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>86</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <v>92</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="2">
         <v>92</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="2">
         <v>95</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="2">
         <v>95</v>
       </c>
-      <c r="P5" s="36">
+      <c r="P5" s="25">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="31.5">
-      <c r="B6" s="16" t="s">
+    <row r="6" spans="2:16" ht="31.5">
+      <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="20">
         <v>93</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>93</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>93</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>93</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>93</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>93</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>93</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>93</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <v>93</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="2">
         <v>93</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>93</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="2">
         <v>96</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="2">
         <v>93</v>
       </c>
-      <c r="P6" s="36">
+      <c r="P6" s="25">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16.5" thickBot="1">
-      <c r="B7" s="17" t="s">
+    <row r="7" spans="2:16" ht="16.5" thickBot="1">
+      <c r="B7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="21">
         <v>90</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>90</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>90</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>90</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>90</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>90</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>90</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>90</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <v>90</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <v>90</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="3">
         <v>100</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <v>100</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
         <v>100</v>
       </c>
-      <c r="P7" s="37">
+      <c r="P7" s="27">
         <v>100</v>
       </c>
     </row>
@@ -1498,219 +1460,196 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="B1:P16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4:P5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16" width="13.7109375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" ht="16.5" thickBot="1">
-      <c r="B2" s="42" t="s">
+    <row r="1" spans="2:16" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:16" ht="16.5" thickBot="1">
+      <c r="B2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="44"/>
-    </row>
-    <row r="3" spans="1:16" ht="16.5" thickBot="1">
-      <c r="B3" s="24"/>
-      <c r="C3" s="18" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="32"/>
+    </row>
+    <row r="3" spans="2:16" ht="16.5" thickBot="1">
+      <c r="B3" s="38"/>
+      <c r="C3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="P3" s="35" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="B4" s="14" t="s">
+    <row r="4" spans="2:16" ht="15.75">
+      <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="17">
         <v>96</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="18">
         <v>100</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="18">
         <v>100</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="18">
         <v>97</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="18">
         <v>98</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="18">
         <v>100</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="18">
         <v>100</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="18">
         <v>100</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="18">
         <v>100</v>
       </c>
-      <c r="L4" s="27">
+      <c r="L4" s="18">
         <v>99</v>
       </c>
-      <c r="M4" s="27">
+      <c r="M4" s="18">
         <v>100</v>
       </c>
-      <c r="N4" s="27">
+      <c r="N4" s="18">
         <v>98</v>
       </c>
-      <c r="O4" s="33">
+      <c r="O4" s="22">
         <v>99</v>
       </c>
-      <c r="P4" s="45">
+      <c r="P4" s="28">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="16.5" thickBot="1">
-      <c r="B5" s="17" t="s">
+    <row r="5" spans="2:16" ht="16.5" thickBot="1">
+      <c r="B5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="16">
         <v>88</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>96</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>96</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>94</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>95</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>96</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>96</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>96</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>93</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <v>91</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="3">
         <v>91</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="3">
         <v>95</v>
       </c>
-      <c r="O5" s="34">
+      <c r="O5" s="23">
         <v>96</v>
       </c>
-      <c r="P5" s="41">
+      <c r="P5" s="27">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="6" customFormat="1">
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="1:16" s="6" customFormat="1">
-      <c r="B7" s="9"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="D8" s="25"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="L13" s="25"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="F16" s="25"/>
+    <row r="6" spans="2:16" s="6" customFormat="1" ht="15.75">
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="2:16" s="6" customFormat="1" ht="15.75">
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="D8" s="39"/>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="I12" s="40"/>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="L13" s="39"/>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="F16" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
